--- a/biology/Botanique/Poraqueiba_guianensis/Poraqueiba_guianensis.xlsx
+++ b/biology/Botanique/Poraqueiba_guianensis/Poraqueiba_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poraqueiba guianensis est une espèce rare d'arbuste, appartenant à la famille des Metteniusaceae (anciennement des Icacinaceae). Il s'agit de l'espèce type du genre Poraqueiba Aubl..
-En Guyane, on on le connaît sous les noms de Umari (Portugais)[4], Gris-gris[5], Minquart (Créole), Boliquin, Nion-oudou (Paramaka).
-Au Suriname, on l'appelle Jakanta, Gewone jakanta (Sranan tongo), Marisiballi (Arawak)[6].
+En Guyane, on on le connaît sous les noms de Umari (Portugais), Gris-gris, Minquart (Créole), Boliquin, Nion-oudou (Paramaka).
+Au Suriname, on l'appelle Jakanta, Gewone jakanta (Sranan tongo), Marisiballi (Arawak).
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Poraqueiba guianensis est un petit arbre du sous-étage à la canopée, atteignant 25 m de haut.
 Les jeunes rameaux sont apprimés-pubescents, devenant rapidement glabres. 
 Le tronc, qui peut comporter des contreforts, porte une écorce lisse, de couleur gris cendré, avec des marques circulaires et des lenticelles orientées horizontalement, des tranches rouge orangé à brun rougeâtre, et des stries verticales plus foncées.
-Le bois est lourd (densité : 0,90), de couleur brun-ocre, maillé, à grain fin, avec des vaisseaux isolés au nombre de 6 à 12 par mm2, plutôt fins (90 à 110 µm)[5]
+Le bois est lourd (densité : 0,90), de couleur brun-ocre, maillé, à grain fin, avec des vaisseaux isolés au nombre de 6 à 12 par mm2, plutôt fins (90 à 110 µm)
 Les feuilles sont simples alternes rapprochées, coriaces, avec des nervures pubescentes sur les 2 faces, glabres et luisantes dessus, séricées devenant rapidement glabrescentes dessous, à marges entières, de forme elliptiques ovales ou oblongues, à apex acuminées, à base aiguë à largement cunéiforme ou rarement obtuse à arrondie, longues de 12-25 cm pour 5-10 cm de large.
 La nervure médiane en relief sur le dessus, et saillante en dessous.
 Les ± 7-8 paires nervures latérales, sont légèrement en relief ou plates au-dessus, saillantes en dessous, arquées, avec des veinules proéminentes des deux côtés.
@@ -530,7 +544,7 @@
 La corolle est blanche, avec 4 pétales de forme oblongue-ovale, longs de 3 mm pour 1 mm de large, duveteux à l'extérieur, et à l'intérieur divisés en deux moitiés par une crête médiane charnue, glabre dans sa partie supérieure, et dans sa partie inférieure élargie, sulquée et pubescente, avec 3 rainures séparées par deux côtes charnues légèrement poilues.
 Les 5 étamines longues de 2 à 3 mm, s’insèrent dans les rainures des pétales (alterni-pétales), avec des filets aplatis, plus larges vers l'apex, et les anthères dressées introrses, nettement latérales sur le connectif.
 L'ovaire est globuleux, long de 1 à 1,5 mm, avec le style simple, long de 0,5 mm, et le stigmate discoïde, punctiforme.
-Les fruits sont des drupes luisantes, vertes devenant jaunes à maturité (devenant noirâtres au séchage), renfermant une pulpe farineuse également jaune, de forme oblongue ou ellipsoïde à demi courbe, acuminées, longues de 3 à 4 cm pour environ 2 cm de diamètre[7],[4],[6],[8].
+Les fruits sont des drupes luisantes, vertes devenant jaunes à maturité (devenant noirâtres au séchage), renfermant une pulpe farineuse également jaune, de forme oblongue ou ellipsoïde à demi courbe, acuminées, longues de 3 à 4 cm pour environ 2 cm de diamètre.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poraqueiba guianensis est présent au Suriname, en Guyane, et au Brésil (Pará, Amapá)[7],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poraqueiba guianensis est présent au Suriname, en Guyane, et au Brésil (Pará, Amapá),.
 </t>
         </is>
       </c>
@@ -590,14 +606,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poraqueiba guianensis est un arbre occasionnel à assez commun en forêt[6],[7] de terre ferme (non inondée)[4].
-En Guyane, il fleurit en août, septembre, et fructifie en novembre[4].
-Dans la "Reserva Florestal Adolpho Ducke" (Amazonas) il fleurit de juillet à décembre, et fructifie en janvier[9].
-Phytogéographie
-Poraqueiba guianensis témoigne des évolutions Phytogéographiques sur l'île de Marajo[10].
-La composition chimique de Poraqueiba guianensis a permis d'expliquer l'évolution géographique de son groupe taxonomique[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poraqueiba guianensis est un arbre occasionnel à assez commun en forêt, de terre ferme (non inondée).
+En Guyane, il fleurit en août, septembre, et fructifie en novembre.
+Dans la "Reserva Florestal Adolpho Ducke" (Amazonas) il fleurit de juillet à décembre, et fructifie en janvier.
 </t>
         </is>
       </c>
@@ -623,13 +638,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Écologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les fruits de Poraqueiba guianensis sont sucrés et farineux. Les fruits et graines de l'espèce proche Poraqueiba sericea Tul. sont commestibles[12].
-Le bois de Poraqueiba guianensis a été étudié[13].
+          <t>Phytogéographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poraqueiba guianensis témoigne des évolutions Phytogéographiques sur l'île de Marajo.
+La composition chimique de Poraqueiba guianensis a permis d'expliquer l'évolution géographique de son groupe taxonomique.
 </t>
         </is>
       </c>
@@ -655,13 +676,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chimie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poraqueiba guianensis a fait l'objet d'analyses chimiques[14].
-Il contient des tri-terpenoïdes[15] sont un original (acide icacinique)[16], et des sesquiterpenoïdes (emmotines)[17], mais pas de lignanes[18].
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de Poraqueiba guianensis sont sucrés et farineux. Les fruits et graines de l'espèce proche Poraqueiba sericea Tul. sont commestibles.
+Le bois de Poraqueiba guianensis a été étudié.
 </t>
         </is>
       </c>
@@ -687,12 +710,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poraqueiba guianensis a fait l'objet d'analyses chimiques.
+Il contient des tri-terpenoïdes sont un original (acide icacinique), et des sesquiterpenoïdes (emmotines), mais pas de lignanes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Poraqueiba_guianensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poraqueiba_guianensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[19] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PORAQUEIBA Guianenſis. (Tabula 47.)
 Arbor quinquaginta-pedalis, ramos plures, in ſumitate proferens. Folia alterna, petiolata, glabra, ovata, acuta. Flores ſpicati, axillares, albi, minimi.
 Florebat Novembri.
